--- a/KKBox Customer Churn Prediction/Legacy Documents/Visual Assets.xlsx
+++ b/KKBox Customer Churn Prediction/Legacy Documents/Visual Assets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\J-5\GitHub\Project Portfolio\KKBox Customer Churn\Legacy Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84ae54e972e39744/J-5/GitHub/Project Portfolio/KKBox Customer Churn Prediction/Legacy Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="558" documentId="8_{4B8B00A4-E49C-4C7E-BFFC-C251F04A5DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{446A2056-DA57-4406-BEC9-B7B4BAFCF3BB}"/>
+  <xr:revisionPtr revIDLastSave="759" documentId="8_{4B8B00A4-E49C-4C7E-BFFC-C251F04A5DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{660B02FB-5A73-4DE9-B617-CE8A3AA10A19}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1BA04CD-3444-404F-BDB5-AF4816CAC5D8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="76">
   <si>
     <t xml:space="preserve">GBT-1to1-Model1 </t>
   </si>
@@ -581,8 +581,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,29 +608,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EF2881-0D28-4EEC-97D1-A43FE1F69A76}">
   <dimension ref="A1:BD368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="Q10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH61" sqref="AH61:AI61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +965,7 @@
     <col min="31" max="31" width="27" style="3" customWidth="1"/>
     <col min="32" max="33" width="10.7109375" style="3" customWidth="1"/>
     <col min="34" max="34" width="14.140625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" style="3" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15.28515625" style="3" customWidth="1"/>
     <col min="37" max="37" width="11.140625" style="2" customWidth="1"/>
     <col min="38" max="38" width="26.85546875" style="2" customWidth="1"/>
@@ -982,28 +982,28 @@
       <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="M2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="M2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
@@ -1012,24 +1012,24 @@
       <c r="AJ2" s="3"/>
     </row>
     <row r="3" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -1038,18 +1038,18 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="G4" s="33" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="G4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -1067,42 +1067,42 @@
     </row>
     <row r="6" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="26" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="26"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="26" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="26"/>
+      <c r="P6" s="22"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="22" t="s">
+      <c r="R6" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="26" t="s">
+      <c r="S6" s="27"/>
+      <c r="T6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="26"/>
+      <c r="U6" s="22"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1139,8 +1139,8 @@
     </row>
     <row r="7" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1148,8 +1148,8 @@
         <v>3</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1158,8 +1158,8 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1167,8 +1167,8 @@
         <v>3</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
       <c r="T7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1178,32 +1178,32 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="22" t="s">
+      <c r="Y7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="26" t="s">
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AB7" s="26"/>
+      <c r="AB7" s="33"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="22" t="s">
+      <c r="AD7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="26" t="s">
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="26"/>
+      <c r="AG7" s="22"/>
       <c r="AH7" s="3"/>
-      <c r="AI7" s="22" t="s">
+      <c r="AI7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="26" t="s">
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AL7" s="26"/>
+      <c r="AL7" s="22"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="8" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1236,7 +1236,7 @@
         <v>106002</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="23" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="32" t="s">
         <v>1</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -1263,7 +1263,7 @@
         <v>74441</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="21" t="s">
+      <c r="R8" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S8" s="5" t="s">
@@ -1278,8 +1278,8 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="25"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="29"/>
       <c r="AA8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1287,8 +1287,8 @@
         <v>3</v>
       </c>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="25"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="29"/>
       <c r="AF8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1296,8 +1296,8 @@
         <v>3</v>
       </c>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="25"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="29"/>
       <c r="AK8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="9" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>16722</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="21"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>16194</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="21"/>
+      <c r="R9" s="24"/>
       <c r="S9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="21" t="s">
+      <c r="Y9" s="23" t="s">
         <v>1</v>
       </c>
       <c r="Z9" s="5" t="s">
@@ -1383,7 +1383,7 @@
         <v>109475</v>
       </c>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="21" t="s">
+      <c r="AD9" s="23" t="s">
         <v>1</v>
       </c>
       <c r="AE9" s="5" t="s">
@@ -1396,7 +1396,7 @@
         <v>107540</v>
       </c>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="21" t="s">
+      <c r="AI9" s="23" t="s">
         <v>1</v>
       </c>
       <c r="AJ9" s="5" t="s">
@@ -1409,8 +1409,12 @@
         <v>103067</v>
       </c>
       <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
+      <c r="AN9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO9" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
@@ -1435,7 +1439,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="Y10" s="21"/>
+      <c r="Y10" s="24"/>
       <c r="Z10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1445,7 +1449,7 @@
       <c r="AB10" s="4">
         <v>16555</v>
       </c>
-      <c r="AD10" s="21"/>
+      <c r="AD10" s="24"/>
       <c r="AE10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>16453</v>
       </c>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="21"/>
+      <c r="AI10" s="24"/>
       <c r="AJ10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1468,39 +1472,39 @@
       </c>
     </row>
     <row r="11" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="G11" s="22" t="s">
+      <c r="E11" s="22"/>
+      <c r="G11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="26" t="s">
+      <c r="H11" s="27"/>
+      <c r="I11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="M11" s="22" t="s">
+      <c r="J11" s="22"/>
+      <c r="M11" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="26" t="s">
+      <c r="N11" s="27"/>
+      <c r="O11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="26"/>
+      <c r="P11" s="22"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="22" t="s">
+      <c r="R11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="S11" s="23"/>
-      <c r="T11" s="26" t="s">
+      <c r="S11" s="27"/>
+      <c r="T11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U11" s="26"/>
+      <c r="U11" s="22"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
@@ -1509,24 +1513,24 @@
       <c r="AJ11" s="3"/>
     </row>
     <row r="12" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1534,42 +1538,42 @@
         <v>3</v>
       </c>
       <c r="Q12" s="7"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="25"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="29"/>
       <c r="T12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y12" s="22" t="s">
+      <c r="Y12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="26" t="s">
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AB12" s="26"/>
-      <c r="AD12" s="22" t="s">
+      <c r="AB12" s="22"/>
+      <c r="AD12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="26" t="s">
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AG12" s="26"/>
+      <c r="AG12" s="22"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="22" t="s">
+      <c r="AI12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="26" t="s">
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AL12" s="26"/>
+      <c r="AL12" s="22"/>
     </row>
     <row r="13" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1581,7 +1585,7 @@
       <c r="E13" s="4">
         <v>105436</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="23" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1593,7 +1597,7 @@
       <c r="J13" s="4">
         <v>107540</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="23" t="s">
         <v>1</v>
       </c>
       <c r="N13" s="5" t="s">
@@ -1606,7 +1610,7 @@
         <v>41327</v>
       </c>
       <c r="Q13" s="7"/>
-      <c r="R13" s="21" t="s">
+      <c r="R13" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S13" s="5" t="s">
@@ -1618,16 +1622,16 @@
       <c r="U13" s="8">
         <v>13130</v>
       </c>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="29"/>
       <c r="AA13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="25"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="29"/>
       <c r="AF13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1635,8 +1639,8 @@
         <v>3</v>
       </c>
       <c r="AH13" s="3"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="25"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="29"/>
       <c r="AK13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1645,7 +1649,7 @@
       </c>
     </row>
     <row r="14" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1655,7 +1659,7 @@
       <c r="E14" s="4">
         <v>16675</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1665,7 +1669,7 @@
       <c r="J14" s="4">
         <v>16453</v>
       </c>
-      <c r="M14" s="21"/>
+      <c r="M14" s="24"/>
       <c r="N14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>14057</v>
       </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="21"/>
+      <c r="R14" s="24"/>
       <c r="S14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1686,7 +1690,7 @@
       <c r="U14" s="8">
         <v>9384</v>
       </c>
-      <c r="Y14" s="21" t="s">
+      <c r="Y14" s="23" t="s">
         <v>1</v>
       </c>
       <c r="Z14" s="5" t="s">
@@ -1698,7 +1702,7 @@
       <c r="AB14" s="4">
         <v>91104</v>
       </c>
-      <c r="AD14" s="21" t="s">
+      <c r="AD14" s="23" t="s">
         <v>1</v>
       </c>
       <c r="AE14" s="5" t="s">
@@ -1711,7 +1715,7 @@
         <v>98714</v>
       </c>
       <c r="AH14" s="3"/>
-      <c r="AI14" s="21" t="s">
+      <c r="AI14" s="23" t="s">
         <v>1</v>
       </c>
       <c r="AJ14" s="5" t="s">
@@ -1734,7 +1738,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
-      <c r="Y15" s="21"/>
+      <c r="Y15" s="24"/>
       <c r="Z15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1744,7 +1748,7 @@
       <c r="AB15" s="4">
         <v>16207</v>
       </c>
-      <c r="AD15" s="21"/>
+      <c r="AD15" s="24"/>
       <c r="AE15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>16474</v>
       </c>
       <c r="AH15" s="3"/>
-      <c r="AI15" s="21"/>
+      <c r="AI15" s="24"/>
       <c r="AJ15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1767,39 +1771,39 @@
       </c>
     </row>
     <row r="16" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="G16" s="22" t="s">
+      <c r="E16" s="22"/>
+      <c r="G16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="26" t="s">
+      <c r="H16" s="27"/>
+      <c r="I16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="M16" s="22" t="s">
+      <c r="J16" s="22"/>
+      <c r="M16" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="26" t="s">
+      <c r="N16" s="27"/>
+      <c r="O16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="26"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="22" t="s">
+      <c r="R16" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="S16" s="23"/>
-      <c r="T16" s="26" t="s">
+      <c r="S16" s="27"/>
+      <c r="T16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U16" s="26"/>
+      <c r="U16" s="22"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -1808,24 +1812,24 @@
       <c r="AJ16" s="3"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
       <c r="O17" s="6" t="s">
         <v>2</v>
       </c>
@@ -1833,22 +1837,22 @@
         <v>3</v>
       </c>
       <c r="Q17" s="7"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="29"/>
       <c r="T17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y17" s="22" t="s">
+      <c r="Y17" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="26" t="s">
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AB17" s="26"/>
+      <c r="AB17" s="22"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
@@ -1857,7 +1861,7 @@
       <c r="AJ17" s="3"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1869,7 +1873,7 @@
       <c r="E18" s="4">
         <v>103432</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="23" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -1881,7 +1885,7 @@
       <c r="J18" s="4">
         <v>103067</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="23" t="s">
         <v>1</v>
       </c>
       <c r="N18" s="5" t="s">
@@ -1894,7 +1898,7 @@
         <v>27910</v>
       </c>
       <c r="Q18" s="7"/>
-      <c r="R18" s="21" t="s">
+      <c r="R18" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S18" s="5" t="s">
@@ -1906,8 +1910,8 @@
       <c r="U18" s="8">
         <v>10698</v>
       </c>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="25"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="29"/>
       <c r="AA18" s="6" t="s">
         <v>2</v>
       </c>
@@ -1924,10 +1928,10 @@
         <v>40</v>
       </c>
       <c r="AH18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI18" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="AI18" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="AJ18" s="20" t="s">
         <v>39</v>
@@ -1942,17 +1946,17 @@
         <v>40</v>
       </c>
       <c r="AO18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP18" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="AP18" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="AQ18" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +1966,7 @@
       <c r="E19" s="4">
         <v>16672</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1972,7 +1976,7 @@
       <c r="J19" s="4">
         <v>16441</v>
       </c>
-      <c r="M19" s="21"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1983,7 +1987,7 @@
         <v>11570</v>
       </c>
       <c r="Q19" s="7"/>
-      <c r="R19" s="21"/>
+      <c r="R19" s="24"/>
       <c r="S19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1993,7 +1997,7 @@
       <c r="U19" s="8">
         <v>8575</v>
       </c>
-      <c r="Y19" s="21" t="s">
+      <c r="Y19" s="23" t="s">
         <v>1</v>
       </c>
       <c r="Z19" s="5" t="s">
@@ -2057,7 +2061,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
-      <c r="Y20" s="21"/>
+      <c r="Y20" s="24"/>
       <c r="Z20" s="5" t="s">
         <v>3</v>
       </c>
@@ -2105,31 +2109,31 @@
       </c>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="26" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="G21" s="22" t="s">
+      <c r="E21" s="22"/>
+      <c r="G21" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="26" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="26"/>
+      <c r="J21" s="22"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="22" t="s">
+      <c r="R21" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="S21" s="23"/>
-      <c r="T21" s="26" t="s">
+      <c r="S21" s="27"/>
+      <c r="T21" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="26"/>
+      <c r="U21" s="22"/>
       <c r="AE21" s="13" t="s">
         <v>59</v>
       </c>
@@ -2168,16 +2172,16 @@
       </c>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="6" t="s">
         <v>2</v>
       </c>
@@ -2185,22 +2189,22 @@
         <v>3</v>
       </c>
       <c r="Q22" s="7"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="25"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="29"/>
       <c r="T22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y22" s="22" t="s">
+      <c r="Y22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="26" t="s">
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="26"/>
+      <c r="AB22" s="22"/>
       <c r="AE22" s="18" t="s">
         <v>60</v>
       </c>
@@ -2239,7 +2243,7 @@
       </c>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2251,7 +2255,7 @@
       <c r="E23" s="4">
         <v>106643</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="23" t="s">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -2264,7 +2268,7 @@
         <v>91104</v>
       </c>
       <c r="Q23" s="7"/>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S23" s="5" t="s">
@@ -2276,8 +2280,8 @@
       <c r="U23" s="8">
         <v>9553</v>
       </c>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="25"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="29"/>
       <c r="AA23" s="6" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2326,7 @@
       </c>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2332,7 +2336,7 @@
       <c r="E24" s="4">
         <v>16093</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>16207</v>
       </c>
       <c r="Q24" s="7"/>
-      <c r="R24" s="21"/>
+      <c r="R24" s="24"/>
       <c r="S24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2353,7 +2357,7 @@
       <c r="U24" s="8">
         <v>8018</v>
       </c>
-      <c r="Y24" s="21" t="s">
+      <c r="Y24" s="23" t="s">
         <v>1</v>
       </c>
       <c r="Z24" s="5" t="s">
@@ -2403,7 +2407,7 @@
       </c>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y25" s="21"/>
+      <c r="Y25" s="24"/>
       <c r="Z25" s="5" t="s">
         <v>3</v>
       </c>
@@ -2451,22 +2455,22 @@
       </c>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="G26" s="22" t="s">
+      <c r="E26" s="22"/>
+      <c r="G26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="26" t="s">
+      <c r="H26" s="27"/>
+      <c r="I26" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="26"/>
+      <c r="J26" s="22"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
@@ -2475,38 +2479,38 @@
       <c r="AJ26" s="3"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="29" t="s">
+      <c r="N27" s="27"/>
+      <c r="O27" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="30"/>
-      <c r="R27" s="22" t="s">
+      <c r="P27" s="22"/>
+      <c r="R27" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="S27" s="23"/>
-      <c r="T27" s="29" t="s">
+      <c r="S27" s="27"/>
+      <c r="T27" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U27" s="30"/>
+      <c r="U27" s="22"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
@@ -2515,7 +2519,7 @@
       <c r="AJ27" s="3"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2527,7 +2531,7 @@
       <c r="E28" s="4">
         <v>114306</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="23" t="s">
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -2539,16 +2543,16 @@
       <c r="J28" s="4">
         <v>98714</v>
       </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="25"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
       <c r="O28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="25"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="29"/>
       <c r="T28" s="6" t="s">
         <v>2</v>
       </c>
@@ -2565,10 +2569,10 @@
         <v>40</v>
       </c>
       <c r="AH28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI28" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="AI28" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="AJ28" s="20" t="s">
         <v>39</v>
@@ -2583,17 +2587,17 @@
         <v>40</v>
       </c>
       <c r="AO28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP28" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="AP28" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="AQ28" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
@@ -2603,7 +2607,7 @@
       <c r="E29" s="4">
         <v>16336</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="5" t="s">
         <v>3</v>
       </c>
@@ -2613,7 +2617,7 @@
       <c r="J29" s="4">
         <v>16474</v>
       </c>
-      <c r="M29" s="27" t="s">
+      <c r="M29" s="23" t="s">
         <v>1</v>
       </c>
       <c r="N29" s="5" t="s">
@@ -2625,7 +2629,7 @@
       <c r="P29" s="8">
         <v>68390</v>
       </c>
-      <c r="R29" s="27" t="s">
+      <c r="R29" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S29" s="5" t="s">
@@ -2675,7 +2679,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M30" s="28"/>
+      <c r="M30" s="24"/>
       <c r="N30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2685,7 +2689,7 @@
       <c r="P30" s="8">
         <v>15655</v>
       </c>
-      <c r="R30" s="28"/>
+      <c r="R30" s="24"/>
       <c r="S30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2733,22 +2737,22 @@
       </c>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="26" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="G31" s="22" t="s">
+      <c r="E31" s="22"/>
+      <c r="G31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="26" t="s">
+      <c r="H31" s="27"/>
+      <c r="I31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="26"/>
+      <c r="J31" s="22"/>
       <c r="AE31" s="13" t="s">
         <v>23</v>
       </c>
@@ -2787,38 +2791,38 @@
       </c>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="22" t="s">
+      <c r="M32" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="29" t="s">
+      <c r="N32" s="27"/>
+      <c r="O32" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="30"/>
-      <c r="R32" s="22" t="s">
+      <c r="P32" s="22"/>
+      <c r="R32" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="S32" s="23"/>
-      <c r="T32" s="29" t="s">
+      <c r="S32" s="27"/>
+      <c r="T32" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="30"/>
+      <c r="U32" s="22"/>
       <c r="AE32" s="18" t="s">
         <v>24</v>
       </c>
@@ -2857,7 +2861,7 @@
       </c>
     </row>
     <row r="33" spans="2:56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2869,7 +2873,7 @@
       <c r="E33" s="4">
         <v>109029</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="23" t="s">
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -2881,16 +2885,16 @@
       <c r="J33" s="4">
         <v>96577</v>
       </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="29"/>
       <c r="O33" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="29"/>
       <c r="T33" s="6" t="s">
         <v>2</v>
       </c>
@@ -2934,8 +2938,8 @@
         <v>4.0056000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
+    <row r="34" spans="2:56" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -2945,7 +2949,7 @@
       <c r="E34" s="4">
         <v>16107</v>
       </c>
-      <c r="G34" s="21"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="5" t="s">
         <v>3</v>
       </c>
@@ -2955,7 +2959,7 @@
       <c r="J34" s="4">
         <v>16205</v>
       </c>
-      <c r="M34" s="27" t="s">
+      <c r="M34" s="23" t="s">
         <v>1</v>
       </c>
       <c r="N34" s="5" t="s">
@@ -2967,7 +2971,7 @@
       <c r="P34" s="8">
         <v>18752</v>
       </c>
-      <c r="R34" s="27" t="s">
+      <c r="R34" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S34" s="5" t="s">
@@ -3037,8 +3041,8 @@
         <v>0.14593200000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M35" s="28"/>
+    <row r="35" spans="2:56" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="M35" s="24"/>
       <c r="N35" s="5" t="s">
         <v>3</v>
       </c>
@@ -3048,7 +3052,7 @@
       <c r="P35" s="8">
         <v>11068</v>
       </c>
-      <c r="R35" s="28"/>
+      <c r="R35" s="24"/>
       <c r="S35" s="5" t="s">
         <v>3</v>
       </c>
@@ -3140,22 +3144,22 @@
       </c>
     </row>
     <row r="37" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M37" s="22" t="s">
+      <c r="M37" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="23"/>
-      <c r="O37" s="26" t="s">
+      <c r="N37" s="27"/>
+      <c r="O37" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P37" s="26"/>
-      <c r="R37" s="22" t="s">
+      <c r="P37" s="22"/>
+      <c r="R37" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="S37" s="23"/>
-      <c r="T37" s="26" t="s">
+      <c r="S37" s="27"/>
+      <c r="T37" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="26"/>
+      <c r="U37" s="22"/>
       <c r="AX37" s="16">
         <v>0</v>
       </c>
@@ -3179,16 +3183,16 @@
       </c>
     </row>
     <row r="38" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M38" s="24"/>
-      <c r="N38" s="25"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
       <c r="O38" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R38" s="24"/>
-      <c r="S38" s="25"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="29"/>
       <c r="T38" s="6" t="s">
         <v>2</v>
       </c>
@@ -3205,10 +3209,10 @@
         <v>40</v>
       </c>
       <c r="AH38" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI38" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="AI38" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="AJ38" s="20" t="s">
         <v>39</v>
@@ -3223,10 +3227,10 @@
         <v>40</v>
       </c>
       <c r="AO38" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP38" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="AP38" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="AQ38" s="20" t="s">
         <v>39</v>
@@ -3254,7 +3258,7 @@
       </c>
     </row>
     <row r="39" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M39" s="21" t="s">
+      <c r="M39" s="23" t="s">
         <v>1</v>
       </c>
       <c r="N39" s="5" t="s">
@@ -3266,7 +3270,7 @@
       <c r="P39" s="8">
         <v>10752</v>
       </c>
-      <c r="R39" s="21" t="s">
+      <c r="R39" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S39" s="5" t="s">
@@ -3337,7 +3341,7 @@
       </c>
     </row>
     <row r="40" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="21"/>
+      <c r="M40" s="24"/>
       <c r="N40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3347,7 +3351,7 @@
       <c r="P40" s="8">
         <v>8149</v>
       </c>
-      <c r="R40" s="21"/>
+      <c r="R40" s="24"/>
       <c r="S40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3475,14 +3479,14 @@
       </c>
     </row>
     <row r="42" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R42" s="22" t="s">
+      <c r="R42" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="23"/>
-      <c r="T42" s="29" t="s">
+      <c r="S42" s="27"/>
+      <c r="T42" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="30"/>
+      <c r="U42" s="22"/>
       <c r="AE42" s="18" t="s">
         <v>24</v>
       </c>
@@ -3542,8 +3546,8 @@
       </c>
     </row>
     <row r="43" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R43" s="24"/>
-      <c r="S43" s="25"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="29"/>
       <c r="T43" s="6" t="s">
         <v>2</v>
       </c>
@@ -3609,7 +3613,7 @@
       </c>
     </row>
     <row r="44" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R44" s="27" t="s">
+      <c r="R44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S44" s="5" t="s">
@@ -3680,7 +3684,7 @@
       </c>
     </row>
     <row r="45" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R45" s="28"/>
+      <c r="R45" s="24"/>
       <c r="S45" s="5" t="s">
         <v>3</v>
       </c>
@@ -3749,14 +3753,14 @@
       </c>
     </row>
     <row r="46" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="26" t="s">
+      <c r="C46" s="27"/>
+      <c r="D46" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="26"/>
+      <c r="E46" s="22"/>
       <c r="AX46" s="16">
         <v>0</v>
       </c>
@@ -3780,8 +3784,8 @@
       </c>
     </row>
     <row r="47" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="6" t="s">
         <v>2</v>
       </c>
@@ -3804,10 +3808,10 @@
         <v>40</v>
       </c>
       <c r="AO47" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP47" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="AP47" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="AQ47" s="20" t="s">
         <v>39</v>
@@ -3835,7 +3839,7 @@
       </c>
     </row>
     <row r="48" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -3867,7 +3871,7 @@
       </c>
     </row>
     <row r="49" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="5" t="s">
         <v>3</v>
       </c>
@@ -3878,23 +3882,23 @@
         <v>8158</v>
       </c>
       <c r="L49" s="3"/>
-      <c r="M49" s="22" t="s">
+      <c r="M49" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="N49" s="23"/>
-      <c r="O49" s="26" t="s">
+      <c r="N49" s="27"/>
+      <c r="O49" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="26"/>
+      <c r="P49" s="22"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="22" t="s">
+      <c r="R49" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="S49" s="23"/>
-      <c r="T49" s="26" t="s">
+      <c r="S49" s="27"/>
+      <c r="T49" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="26"/>
+      <c r="U49" s="22"/>
       <c r="V49" s="3"/>
       <c r="AL49" s="18" t="s">
         <v>68</v>
@@ -3917,8 +3921,8 @@
     </row>
     <row r="50" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L50" s="3"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="25"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
       <c r="O50" s="6" t="s">
         <v>2</v>
       </c>
@@ -3926,8 +3930,8 @@
         <v>3</v>
       </c>
       <c r="Q50" s="3"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="25"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="29"/>
       <c r="T50" s="6" t="s">
         <v>2</v>
       </c>
@@ -3955,16 +3959,16 @@
       </c>
     </row>
     <row r="51" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="26" t="s">
+      <c r="C51" s="27"/>
+      <c r="D51" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="26"/>
+      <c r="E51" s="22"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="21" t="s">
+      <c r="M51" s="23" t="s">
         <v>1</v>
       </c>
       <c r="N51" s="5" t="s">
@@ -3977,7 +3981,7 @@
         <v>76062</v>
       </c>
       <c r="Q51" s="3"/>
-      <c r="R51" s="21" t="s">
+      <c r="R51" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S51" s="5" t="s">
@@ -3992,8 +3996,8 @@
       <c r="V51" s="3"/>
     </row>
     <row r="52" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
@@ -4001,7 +4005,7 @@
         <v>3</v>
       </c>
       <c r="L52" s="3"/>
-      <c r="M52" s="21"/>
+      <c r="M52" s="24"/>
       <c r="N52" s="5" t="s">
         <v>3</v>
       </c>
@@ -4012,7 +4016,7 @@
         <v>17305</v>
       </c>
       <c r="Q52" s="3"/>
-      <c r="R52" s="21"/>
+      <c r="R52" s="24"/>
       <c r="S52" s="5" t="s">
         <v>3</v>
       </c>
@@ -4033,10 +4037,10 @@
         <v>40</v>
       </c>
       <c r="AH52" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI52" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="AI52" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="AJ52" s="20" t="s">
         <v>39</v>
@@ -4051,17 +4055,17 @@
         <v>40</v>
       </c>
       <c r="AO52" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP52" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="AP52" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="AQ52" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="53" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -4120,7 +4124,7 @@
       </c>
     </row>
     <row r="54" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="21"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4130,23 +4134,23 @@
       <c r="E54" s="4">
         <v>8095</v>
       </c>
-      <c r="M54" s="22" t="s">
+      <c r="M54" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="N54" s="23"/>
-      <c r="O54" s="26" t="s">
+      <c r="N54" s="27"/>
+      <c r="O54" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="26"/>
+      <c r="P54" s="22"/>
       <c r="Q54" s="9"/>
-      <c r="R54" s="22" t="s">
+      <c r="R54" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="S54" s="23"/>
-      <c r="T54" s="26" t="s">
+      <c r="S54" s="27"/>
+      <c r="T54" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U54" s="26"/>
+      <c r="U54" s="22"/>
       <c r="AE54" s="18" t="s">
         <v>49</v>
       </c>
@@ -4185,8 +4189,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M55" s="24"/>
-      <c r="N55" s="25"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="29"/>
       <c r="O55" s="6" t="s">
         <v>2</v>
       </c>
@@ -4194,8 +4198,8 @@
         <v>3</v>
       </c>
       <c r="Q55" s="9"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="25"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="29"/>
       <c r="T55" s="6" t="s">
         <v>2</v>
       </c>
@@ -4240,15 +4244,15 @@
       </c>
     </row>
     <row r="56" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="26" t="s">
+      <c r="C56" s="27"/>
+      <c r="D56" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="26"/>
-      <c r="M56" s="21" t="s">
+      <c r="E56" s="22"/>
+      <c r="M56" s="23" t="s">
         <v>1</v>
       </c>
       <c r="N56" s="5" t="s">
@@ -4261,7 +4265,7 @@
         <v>33399</v>
       </c>
       <c r="Q56" s="9"/>
-      <c r="R56" s="21" t="s">
+      <c r="R56" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S56" s="5" t="s">
@@ -4293,15 +4297,15 @@
       </c>
     </row>
     <row r="57" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="21"/>
+      <c r="M57" s="24"/>
       <c r="N57" s="5" t="s">
         <v>3</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>14637</v>
       </c>
       <c r="Q57" s="9"/>
-      <c r="R57" s="21"/>
+      <c r="R57" s="24"/>
       <c r="S57" s="5" t="s">
         <v>3</v>
       </c>
@@ -4360,7 +4364,7 @@
       </c>
     </row>
     <row r="58" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -4419,7 +4423,7 @@
       </c>
     </row>
     <row r="59" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="21"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="5" t="s">
         <v>3</v>
       </c>
@@ -4429,23 +4433,23 @@
       <c r="E59" s="4">
         <v>8095</v>
       </c>
-      <c r="M59" s="22" t="s">
+      <c r="M59" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="N59" s="23"/>
-      <c r="O59" s="26" t="s">
+      <c r="N59" s="27"/>
+      <c r="O59" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="26"/>
+      <c r="P59" s="22"/>
       <c r="Q59" s="9"/>
-      <c r="R59" s="22" t="s">
+      <c r="R59" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="S59" s="23"/>
-      <c r="T59" s="26" t="s">
+      <c r="S59" s="27"/>
+      <c r="T59" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="26"/>
+      <c r="U59" s="22"/>
       <c r="AE59" s="13" t="s">
         <v>53</v>
       </c>
@@ -4484,8 +4488,8 @@
       </c>
     </row>
     <row r="60" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M60" s="24"/>
-      <c r="N60" s="25"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="29"/>
       <c r="O60" s="6" t="s">
         <v>2</v>
       </c>
@@ -4493,8 +4497,8 @@
         <v>3</v>
       </c>
       <c r="Q60" s="9"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="25"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="29"/>
       <c r="T60" s="6" t="s">
         <v>2</v>
       </c>
@@ -4521,7 +4525,7 @@
       </c>
     </row>
     <row r="61" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M61" s="21" t="s">
+      <c r="M61" s="23" t="s">
         <v>1</v>
       </c>
       <c r="N61" s="5" t="s">
@@ -4534,7 +4538,7 @@
         <v>20945</v>
       </c>
       <c r="Q61" s="9"/>
-      <c r="R61" s="21" t="s">
+      <c r="R61" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S61" s="5" t="s">
@@ -4556,17 +4560,17 @@
         <v>40</v>
       </c>
       <c r="AH61" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI61" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="AI61" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="AJ61" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="62" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M62" s="21"/>
+      <c r="M62" s="24"/>
       <c r="N62" s="5" t="s">
         <v>3</v>
       </c>
@@ -4577,7 +4581,7 @@
         <v>12490</v>
       </c>
       <c r="Q62" s="9"/>
-      <c r="R62" s="21"/>
+      <c r="R62" s="24"/>
       <c r="S62" s="5" t="s">
         <v>3</v>
       </c>
@@ -4677,14 +4681,14 @@
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="9"/>
-      <c r="R64" s="22" t="s">
+      <c r="R64" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="S64" s="23"/>
-      <c r="T64" s="26" t="s">
+      <c r="S64" s="27"/>
+      <c r="T64" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U64" s="26"/>
+      <c r="U64" s="22"/>
       <c r="AE64" s="13" t="s">
         <v>59</v>
       </c>
@@ -4728,8 +4732,8 @@
       <c r="O65" s="15"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="9"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="25"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="29"/>
       <c r="T65" s="6" t="s">
         <v>2</v>
       </c>
@@ -4779,7 +4783,7 @@
       <c r="O66" s="15"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="9"/>
-      <c r="R66" s="21" t="s">
+      <c r="R66" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S66" s="5" t="s">
@@ -4816,7 +4820,7 @@
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="9"/>
-      <c r="R67" s="21"/>
+      <c r="R67" s="24"/>
       <c r="S67" s="5" t="s">
         <v>3</v>
       </c>
@@ -7390,43 +7394,81 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="R59:S60"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="R64:S65"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="R54:S55"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="R49:S50"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M54:N55"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="R37:S38"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="R42:S43"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="R27:S28"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R32:S33"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AI7:AJ8"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AI12:AJ13"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AD14:AD15"/>
     <mergeCell ref="M2:U3"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="T16:U16"/>
@@ -7451,81 +7493,43 @@
     <mergeCell ref="M11:N12"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AI7:AJ8"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Y17:Z18"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AI12:AJ13"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="R42:S43"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="R27:S28"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R32:S33"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="R64:S65"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="R54:S55"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="R49:S50"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M54:N55"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="R37:S38"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="M59:N60"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="R59:S60"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
